--- a/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según si tienen obesidad en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según si tienen obesidad en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según si tienen obesidad en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que, sufre obesidad en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según si tienen obesidad en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>26327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17538</v>
+        <v>17543</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37619</v>
+        <v>39220</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09804797292513694</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06531537296659246</v>
+        <v>0.06533499588897548</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1401059920296659</v>
+        <v>0.1460664111425939</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -765,19 +765,19 @@
         <v>21688</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13795</v>
+        <v>14154</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32917</v>
+        <v>31176</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08354094837761829</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05313739944093422</v>
+        <v>0.05451963067241262</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1267933028031864</v>
+        <v>0.1200890791511739</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -786,19 +786,19 @@
         <v>48015</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35622</v>
+        <v>35004</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63205</v>
+        <v>61158</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09091664856407893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06745166609902441</v>
+        <v>0.06628039425390508</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1196797095154751</v>
+        <v>0.11580459097569</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>242180</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>230888</v>
+        <v>229287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>250969</v>
+        <v>250964</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9019520270748631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8598940079703341</v>
+        <v>0.8539335888574061</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9346846270334075</v>
+        <v>0.9346650041110246</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>222</v>
@@ -836,19 +836,19 @@
         <v>237923</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>226694</v>
+        <v>228435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>245816</v>
+        <v>245457</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9164590516223817</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8732066971968137</v>
+        <v>0.8799109208488261</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9468626005590658</v>
+        <v>0.9454803693275874</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>462</v>
@@ -857,19 +857,19 @@
         <v>480102</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>464912</v>
+        <v>466959</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>492495</v>
+        <v>493113</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9090833514359211</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8803202904845248</v>
+        <v>0.88419540902431</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9325483339009756</v>
+        <v>0.9337196057460949</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>68694</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53781</v>
+        <v>53263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85467</v>
+        <v>86275</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1406085075018033</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.110083826074969</v>
+        <v>0.109023450859546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1749424643095697</v>
+        <v>0.1765947921853821</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -982,19 +982,19 @@
         <v>84783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68111</v>
+        <v>68812</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102432</v>
+        <v>100943</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1727651503645191</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1387914504477774</v>
+        <v>0.140220147803578</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2087298715208553</v>
+        <v>0.2056957648744326</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>145</v>
@@ -1003,19 +1003,19 @@
         <v>153477</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130241</v>
+        <v>131952</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177232</v>
+        <v>176483</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1567228929992827</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1329959214848322</v>
+        <v>0.1347432844055435</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1809810470974771</v>
+        <v>0.1802157973284242</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>419851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403078</v>
+        <v>402270</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>434764</v>
+        <v>435282</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8593914924981967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8250575356904308</v>
+        <v>0.8234052078146173</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.889916173925031</v>
+        <v>0.8909765491404538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>403</v>
@@ -1053,19 +1053,19 @@
         <v>405958</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>388309</v>
+        <v>389798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>422630</v>
+        <v>421929</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8272348496354809</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7912701284791447</v>
+        <v>0.7943042351255676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8612085495522227</v>
+        <v>0.8597798521964221</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>803</v>
@@ -1074,19 +1074,19 @@
         <v>825809</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>802054</v>
+        <v>802803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>849045</v>
+        <v>847334</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8432771070007172</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8190189529025225</v>
+        <v>0.8197842026715757</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8670040785151678</v>
+        <v>0.8652567155944562</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>26550</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18366</v>
+        <v>17623</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38082</v>
+        <v>38191</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08327042739420436</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05760011129365206</v>
+        <v>0.05527218285618669</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1194372281055059</v>
+        <v>0.1197787477764062</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1199,19 +1199,19 @@
         <v>48012</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35591</v>
+        <v>36407</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62688</v>
+        <v>62232</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.143641408613789</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1064788303033043</v>
+        <v>0.1089220018393701</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1875475801548346</v>
+        <v>0.1861840140367736</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>72</v>
@@ -1220,19 +1220,19 @@
         <v>74563</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59446</v>
+        <v>59011</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91517</v>
+        <v>92052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1141679328642538</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09102117145863793</v>
+        <v>0.09035534905005503</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1401273695251634</v>
+        <v>0.1409476214258475</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>292296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>280764</v>
+        <v>280655</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>300480</v>
+        <v>301223</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9167295726057957</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8805627718944939</v>
+        <v>0.8802212522235938</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9423998887063479</v>
+        <v>0.9447278171438133</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>288</v>
@@ -1270,19 +1270,19 @@
         <v>286239</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>271563</v>
+        <v>272019</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>298660</v>
+        <v>297844</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8563585913862111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8124524198451655</v>
+        <v>0.8138159859632267</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8935211696966957</v>
+        <v>0.8910779981606298</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>572</v>
@@ -1291,19 +1291,19 @@
         <v>578534</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>561580</v>
+        <v>561045</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>593651</v>
+        <v>594086</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8858320671357462</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8598726304748365</v>
+        <v>0.8590523785741525</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9089788285413621</v>
+        <v>0.909644650949945</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>32840</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23721</v>
+        <v>23946</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44768</v>
+        <v>45379</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09195272560743105</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06641865165294421</v>
+        <v>0.06704770100134107</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1253501244967039</v>
+        <v>0.127059525802437</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -1416,19 +1416,19 @@
         <v>44427</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34098</v>
+        <v>33963</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56878</v>
+        <v>58434</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1199066344520755</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09202886883377208</v>
+        <v>0.09166421564591819</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1535108515469695</v>
+        <v>0.1577100634628758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>79</v>
@@ -1437,19 +1437,19 @@
         <v>77268</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62823</v>
+        <v>62227</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95170</v>
+        <v>94589</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1061865088592159</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08633483923667359</v>
+        <v>0.08551600917369054</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1307889073190998</v>
+        <v>0.1299905740594474</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>324305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>312377</v>
+        <v>311766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>333424</v>
+        <v>333199</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9080472743925689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8746498755032959</v>
+        <v>0.8729404741975629</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9335813483470555</v>
+        <v>0.9329522989986587</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>337</v>
@@ -1487,19 +1487,19 @@
         <v>326089</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>313638</v>
+        <v>312082</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>336418</v>
+        <v>336553</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8800933655479245</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8464891484530305</v>
+        <v>0.842289936537124</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9079711311662279</v>
+        <v>0.9083357843540818</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>665</v>
@@ -1508,19 +1508,19 @@
         <v>650394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>632492</v>
+        <v>633073</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>664839</v>
+        <v>665435</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8938134911407841</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8692110926808997</v>
+        <v>0.8700094259405522</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9136651607633263</v>
+        <v>0.9144839908263094</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>31872</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22270</v>
+        <v>22318</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43680</v>
+        <v>43168</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1585972966381625</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1108140899370492</v>
+        <v>0.1110546438586406</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.217352094415712</v>
+        <v>0.2148026068739191</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -1633,19 +1633,19 @@
         <v>40857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30238</v>
+        <v>30659</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53778</v>
+        <v>54330</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2017823265315698</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1493354154770822</v>
+        <v>0.1514164644925237</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2655903007121955</v>
+        <v>0.2683191065799528</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -1654,19 +1654,19 @@
         <v>72730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>58048</v>
+        <v>58215</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>88938</v>
+        <v>88793</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1802710955794501</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1438796429911433</v>
+        <v>0.1442928755246883</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2204448884661999</v>
+        <v>0.2200862618278528</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>169092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>157284</v>
+        <v>157796</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178694</v>
+        <v>178646</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8414027033618375</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7826479055842882</v>
+        <v>0.7851973931260804</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8891859100629509</v>
+        <v>0.8889453561413594</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>155</v>
@@ -1704,19 +1704,19 @@
         <v>161626</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>148705</v>
+        <v>148153</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>172245</v>
+        <v>171824</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7982176734684302</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7344096992878046</v>
+        <v>0.7316808934200472</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8506645845229179</v>
+        <v>0.8485835355074764</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>327</v>
@@ -1725,19 +1725,19 @@
         <v>330717</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>314509</v>
+        <v>314654</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>345399</v>
+        <v>345232</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8197289044205499</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7795551115338002</v>
+        <v>0.7799137381721473</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8561203570088567</v>
+        <v>0.8557071244753118</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>23876</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15631</v>
+        <v>15587</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34243</v>
+        <v>34913</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08884240100273311</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05816223684285495</v>
+        <v>0.05799976718428756</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1274139850796678</v>
+        <v>0.1299100672099395</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -1850,19 +1850,19 @@
         <v>35133</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25734</v>
+        <v>25174</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48068</v>
+        <v>46827</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1277084305158734</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09354377969224902</v>
+        <v>0.09150855348385445</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1747266924170369</v>
+        <v>0.1702168482036595</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -1871,19 +1871,19 @@
         <v>59009</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45779</v>
+        <v>44363</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73644</v>
+        <v>74183</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1085023587716467</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08417449122960519</v>
+        <v>0.08157081009386236</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1354115685901249</v>
+        <v>0.1364018587354608</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>244875</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>234508</v>
+        <v>233838</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>253120</v>
+        <v>253164</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9111575989972669</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8725860149203323</v>
+        <v>0.8700899327900605</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9418377631571451</v>
+        <v>0.9420002328157124</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>233</v>
@@ -1921,19 +1921,19 @@
         <v>239969</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>227034</v>
+        <v>228275</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>249368</v>
+        <v>249928</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8722915694841266</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8252733075829625</v>
+        <v>0.82978315179634</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9064562203077502</v>
+        <v>0.9084914465161454</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>474</v>
@@ -1942,19 +1942,19 @@
         <v>484844</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>470209</v>
+        <v>469670</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>498074</v>
+        <v>499490</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8914976412283533</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8645884314098752</v>
+        <v>0.8635981412645392</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.915825508770395</v>
+        <v>0.9184291899061375</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>72438</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56504</v>
+        <v>56459</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>89058</v>
+        <v>89532</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1179624696881596</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09201424695372039</v>
+        <v>0.09194109372031108</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.145027982993199</v>
+        <v>0.1457990648987754</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>106</v>
@@ -2067,19 +2067,19 @@
         <v>106390</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>89198</v>
+        <v>88142</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>126789</v>
+        <v>125335</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1674937055534788</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.140427430611087</v>
+        <v>0.1387651734851147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1996089716949111</v>
+        <v>0.1973196586465234</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>178</v>
@@ -2088,19 +2088,19 @@
         <v>178828</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>153784</v>
+        <v>155822</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>204223</v>
+        <v>204927</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1431465856983411</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1230995122198063</v>
+        <v>0.1247311186773481</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1634742159308883</v>
+        <v>0.1640379168582845</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>541639</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>525019</v>
+        <v>524545</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>557573</v>
+        <v>557618</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8820375303118404</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8549720170068007</v>
+        <v>0.8542009351012246</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9079857530462795</v>
+        <v>0.9080589062796888</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>512</v>
@@ -2138,19 +2138,19 @@
         <v>528798</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>508399</v>
+        <v>509853</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>545990</v>
+        <v>547046</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8325062944465211</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8003910283050888</v>
+        <v>0.8026803413534765</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.859572569388913</v>
+        <v>0.8612348265148853</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1037</v>
@@ -2159,19 +2159,19 @@
         <v>1070437</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1045042</v>
+        <v>1044338</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1095481</v>
+        <v>1093443</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.856853414301659</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8365257840691125</v>
+        <v>0.8359620831417154</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.876900487780194</v>
+        <v>0.8752688813226517</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>112854</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>94425</v>
+        <v>95123</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132969</v>
+        <v>133209</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1551803254215548</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1298389859818934</v>
+        <v>0.1307996927655934</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1828392615053562</v>
+        <v>0.1831689981720664</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>107</v>
@@ -2284,19 +2284,19 @@
         <v>116020</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>96266</v>
+        <v>98258</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>137224</v>
+        <v>138143</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1516424569112854</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1258231600119478</v>
+        <v>0.1284271413388911</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.179357017127342</v>
+        <v>0.1805587104695425</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>219</v>
@@ -2305,19 +2305,19 @@
         <v>228874</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>202685</v>
+        <v>202118</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>258757</v>
+        <v>255670</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1533665343193757</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1358179825963618</v>
+        <v>0.1354374610951989</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1733909465463271</v>
+        <v>0.1713226262104558</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>614390</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>594275</v>
+        <v>594035</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>632819</v>
+        <v>632121</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8448196745784452</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8171607384946438</v>
+        <v>0.8168310018279337</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8701610140181063</v>
+        <v>0.8692003072344066</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>622</v>
@@ -2355,19 +2355,19 @@
         <v>649067</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>627863</v>
+        <v>626944</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>668821</v>
+        <v>666829</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8483575430887146</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8206429828726581</v>
+        <v>0.8194412895304565</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8741768399880524</v>
+        <v>0.8715728586611088</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1229</v>
@@ -2376,19 +2376,19 @@
         <v>1263457</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1233574</v>
+        <v>1236661</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1289646</v>
+        <v>1290213</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8466334656806243</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8266090534536732</v>
+        <v>0.8286773737895442</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8641820174036384</v>
+        <v>0.8645625389048012</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>395452</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>356348</v>
+        <v>361018</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>431024</v>
+        <v>438086</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1218995832882864</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1098455464763209</v>
+        <v>0.1112850688584412</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1328646971733349</v>
+        <v>0.1350416489880544</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>483</v>
@@ -2501,19 +2501,19 @@
         <v>497311</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>456279</v>
+        <v>453860</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>540944</v>
+        <v>538448</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1492090746758289</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1368983096644281</v>
+        <v>0.1361725519277852</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1623005506536087</v>
+        <v>0.161551498502343</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>868</v>
@@ -2522,19 +2522,19 @@
         <v>892762</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>839611</v>
+        <v>841436</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>950390</v>
+        <v>947870</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1357388950030567</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1276574904101917</v>
+        <v>0.127935010236748</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1445007979349868</v>
+        <v>0.1441176397000261</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2848627</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2813055</v>
+        <v>2805993</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2887731</v>
+        <v>2883061</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8781004167117136</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8671353028266651</v>
+        <v>0.8649583510119456</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8901544535236791</v>
+        <v>0.8887149311415589</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2772</v>
@@ -2572,19 +2572,19 @@
         <v>2835667</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2792034</v>
+        <v>2794530</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2876699</v>
+        <v>2879118</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8507909253241711</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8376994493463912</v>
+        <v>0.8384485014976569</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8631016903355717</v>
+        <v>0.8638274480722148</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5569</v>
@@ -2593,19 +2593,19 @@
         <v>5684295</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5626667</v>
+        <v>5629187</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5737446</v>
+        <v>5735621</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8642611049969433</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8554992020650134</v>
+        <v>0.855882360299974</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8723425095898083</v>
+        <v>0.872064989763252</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>59782</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46666</v>
+        <v>45870</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75908</v>
+        <v>74459</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2094679683396508</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1635098231331813</v>
+        <v>0.1607233303473539</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2659716502483995</v>
+        <v>0.2608943195972593</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -2962,19 +2962,19 @@
         <v>54047</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41468</v>
+        <v>40321</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67988</v>
+        <v>68404</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2015666325034731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1546538747721394</v>
+        <v>0.1503755127456761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2535591318136032</v>
+        <v>0.2551111439370972</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>107</v>
@@ -2983,19 +2983,19 @@
         <v>113829</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94418</v>
+        <v>94960</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>134987</v>
+        <v>135061</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2056405306161848</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1705730234361313</v>
+        <v>0.1715527062200082</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2438643826046767</v>
+        <v>0.2439972759179424</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>225618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>209492</v>
+        <v>210941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238734</v>
+        <v>239530</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7905320316603492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7340283497516004</v>
+        <v>0.7391056804027407</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8364901768668187</v>
+        <v>0.8392766696526461</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -3033,19 +3033,19 @@
         <v>214087</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>200146</v>
+        <v>199730</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>226666</v>
+        <v>227813</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7984333674965268</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7464408681863969</v>
+        <v>0.7448888560629024</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8453461252278606</v>
+        <v>0.8496244872543235</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>404</v>
@@ -3054,19 +3054,19 @@
         <v>439704</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>418546</v>
+        <v>418472</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>459115</v>
+        <v>458573</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7943594693838152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7561356173953233</v>
+        <v>0.7560027240820575</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8294269765638687</v>
+        <v>0.8284472937799916</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>74176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58365</v>
+        <v>58047</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92544</v>
+        <v>92484</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1494611047310185</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1176031697037547</v>
+        <v>0.1169632339563465</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1864728997369191</v>
+        <v>0.1863521924687729</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>92</v>
@@ -3179,19 +3179,19 @@
         <v>99158</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82236</v>
+        <v>83044</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>118623</v>
+        <v>118367</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2005282245597739</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1663077618183874</v>
+        <v>0.1679420412843162</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2398936456939478</v>
+        <v>0.2393762838286745</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>158</v>
@@ -3200,19 +3200,19 @@
         <v>173333</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>150859</v>
+        <v>149004</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>201579</v>
+        <v>198417</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1749481343193448</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1522641748216387</v>
+        <v>0.1503920592632854</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2034572054865917</v>
+        <v>0.2002657499100145</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>422111</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>403743</v>
+        <v>403803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>437922</v>
+        <v>438240</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8505388952689815</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8135271002630807</v>
+        <v>0.8136478075312268</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8823968302962452</v>
+        <v>0.8830367660436533</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>362</v>
@@ -3250,19 +3250,19 @@
         <v>395324</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>375859</v>
+        <v>376115</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>412246</v>
+        <v>411438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7994717754402261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7601063543060521</v>
+        <v>0.7606237161713254</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8336922381816125</v>
+        <v>0.8320579587156838</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>760</v>
@@ -3271,19 +3271,19 @@
         <v>817436</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>789190</v>
+        <v>792352</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>839910</v>
+        <v>841765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8250518656806551</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7965427945134083</v>
+        <v>0.7997342500899856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8477358251783613</v>
+        <v>0.8496079407367145</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>52057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40071</v>
+        <v>40216</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65545</v>
+        <v>66352</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1611097069108386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1240154239273282</v>
+        <v>0.1244629756822757</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2028541914097001</v>
+        <v>0.2053492112292109</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -3396,19 +3396,19 @@
         <v>76729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62872</v>
+        <v>62278</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94358</v>
+        <v>93191</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2262874459329859</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1854184740891755</v>
+        <v>0.1836694677518377</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2782763440100274</v>
+        <v>0.2748361732889042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -3417,19 +3417,19 @@
         <v>128786</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109588</v>
+        <v>110747</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150994</v>
+        <v>150837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1944841429325615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1654922379696578</v>
+        <v>0.1672428816366196</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2280204221133538</v>
+        <v>0.2277831790095427</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>271059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257571</v>
+        <v>256764</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>283045</v>
+        <v>282900</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8388902930891614</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7971458085902999</v>
+        <v>0.7946507887707888</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8759845760726718</v>
+        <v>0.8755370243177237</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>242</v>
@@ -3467,19 +3467,19 @@
         <v>262350</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>244721</v>
+        <v>245888</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>276207</v>
+        <v>276801</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7737125540670141</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7217236559899722</v>
+        <v>0.7251638267110958</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.814581525910824</v>
+        <v>0.8163305322481623</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>509</v>
@@ -3488,19 +3488,19 @@
         <v>533409</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>511201</v>
+        <v>511358</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>552607</v>
+        <v>551448</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8055158570674384</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7719795778866461</v>
+        <v>0.7722168209904569</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8345077620303422</v>
+        <v>0.8327571183633804</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>68117</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53228</v>
+        <v>54488</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85599</v>
+        <v>84486</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.189225025960292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1478650040470845</v>
+        <v>0.1513662178959378</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2377910024273069</v>
+        <v>0.2346980877315335</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -3613,19 +3613,19 @@
         <v>89337</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>72071</v>
+        <v>71754</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104740</v>
+        <v>106351</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2546737511924381</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2054523159841435</v>
+        <v>0.2045500588645444</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2985845205323335</v>
+        <v>0.303176973757113</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -3634,19 +3634,19 @@
         <v>157454</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>134296</v>
+        <v>133336</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>181296</v>
+        <v>179319</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.221526392731125</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1889448008724998</v>
+        <v>0.1875944986891235</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2550703125740613</v>
+        <v>0.252289669878851</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>291860</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>274378</v>
+        <v>275491</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>306749</v>
+        <v>305489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.810774974039708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7622089975726931</v>
+        <v>0.7653019122684666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8521349959529154</v>
+        <v>0.8486337821040624</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>249</v>
@@ -3684,19 +3684,19 @@
         <v>261453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>246050</v>
+        <v>244439</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>278719</v>
+        <v>279036</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7453262488075619</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7014154794676664</v>
+        <v>0.6968230262428871</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7945476840158565</v>
+        <v>0.7954499411354553</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>520</v>
@@ -3705,19 +3705,19 @@
         <v>553314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>529472</v>
+        <v>531449</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>576472</v>
+        <v>577432</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.778473607268875</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7449296874259387</v>
+        <v>0.7477103301211488</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8110551991275002</v>
+        <v>0.8124055013108757</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>40331</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29296</v>
+        <v>30362</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54235</v>
+        <v>54118</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1907351142689033</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1385471978047532</v>
+        <v>0.1435894230163207</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.25649129708855</v>
+        <v>0.2559391668968834</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -3830,19 +3830,19 @@
         <v>40070</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27906</v>
+        <v>29416</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53105</v>
+        <v>52976</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1928090926910389</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1342750179054363</v>
+        <v>0.1415430807965515</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2555287798197352</v>
+        <v>0.2549059893650923</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -3851,19 +3851,19 @@
         <v>80401</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65573</v>
+        <v>64367</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98229</v>
+        <v>98687</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1917631378265629</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1563974277181055</v>
+        <v>0.153521611488536</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2342843921362718</v>
+        <v>0.2353756415042763</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>171118</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>157214</v>
+        <v>157331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182153</v>
+        <v>181087</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8092648857310968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7435087029114501</v>
+        <v>0.7440608331031168</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8614528021952469</v>
+        <v>0.8564105769836794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>162</v>
@@ -3901,19 +3901,19 @@
         <v>167754</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154719</v>
+        <v>154848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>179918</v>
+        <v>178408</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8071909073089611</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7444712201802651</v>
+        <v>0.7450940106349078</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8657249820945638</v>
+        <v>0.8584569192034486</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>320</v>
@@ -3922,19 +3922,19 @@
         <v>338872</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>321044</v>
+        <v>320586</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>353700</v>
+        <v>354906</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.808236862173437</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7657156078637285</v>
+        <v>0.7646243584957237</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8436025722818945</v>
+        <v>0.8464783885114646</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>60908</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47742</v>
+        <v>48002</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74799</v>
+        <v>75911</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2223087413206238</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1742523046432539</v>
+        <v>0.1752026775244972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2730062109574105</v>
+        <v>0.2770671726628514</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -4047,19 +4047,19 @@
         <v>64299</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51880</v>
+        <v>52029</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79053</v>
+        <v>80215</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.231332955889533</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1866520763358625</v>
+        <v>0.187188149063558</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2844162885706212</v>
+        <v>0.2885960414403007</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -4068,19 +4068,19 @@
         <v>125207</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>105224</v>
+        <v>107617</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>144933</v>
+        <v>148646</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2268532785132935</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1906477487209478</v>
+        <v>0.1949826920052845</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2625930838359329</v>
+        <v>0.2693216897134559</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>213073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199182</v>
+        <v>198070</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>226239</v>
+        <v>225979</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7776912586793762</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7269937890425897</v>
+        <v>0.7229328273371486</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8257476953567463</v>
+        <v>0.8247973224755027</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>204</v>
@@ -4118,19 +4118,19 @@
         <v>213649</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198895</v>
+        <v>197733</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>226068</v>
+        <v>225919</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7686670441104669</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7155837114293788</v>
+        <v>0.7114039585596991</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8133479236641371</v>
+        <v>0.812811850936442</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>409</v>
@@ -4139,19 +4139,19 @@
         <v>426722</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>406996</v>
+        <v>403283</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>446705</v>
+        <v>444312</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7731467214867065</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7374069161640671</v>
+        <v>0.7306783102865441</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8093522512790522</v>
+        <v>0.8050173079947155</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>96389</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>78767</v>
+        <v>77673</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>116744</v>
+        <v>115024</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.145664852821978</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1190339641773308</v>
+        <v>0.1173806999202617</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1764247018435941</v>
+        <v>0.1738257822659446</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>129</v>
@@ -4264,19 +4264,19 @@
         <v>140754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>119585</v>
+        <v>120330</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>162486</v>
+        <v>163748</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2041614232324998</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1734555379521114</v>
+        <v>0.1745370069246881</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2356828052452167</v>
+        <v>0.2375142159139935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>219</v>
@@ -4285,19 +4285,19 @@
         <v>237143</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>207075</v>
+        <v>207371</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>265583</v>
+        <v>265031</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1755128750628708</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1532587246358763</v>
+        <v>0.1534777894721273</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1965616905295901</v>
+        <v>0.1961529542093477</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>565330</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>544975</v>
+        <v>546695</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>582952</v>
+        <v>584046</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8543351471780221</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8235752981564058</v>
+        <v>0.8261742177340552</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8809660358226692</v>
+        <v>0.8826193000797381</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>503</v>
@@ -4335,19 +4335,19 @@
         <v>548671</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>526939</v>
+        <v>525677</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>569840</v>
+        <v>569095</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7958385767675002</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7643171947547834</v>
+        <v>0.7624857840860068</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8265444620478886</v>
+        <v>0.8254629930753119</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1030</v>
@@ -4356,19 +4356,19 @@
         <v>1114001</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1085561</v>
+        <v>1086113</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1144069</v>
+        <v>1143773</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8244871249371292</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.80343830947041</v>
+        <v>0.8038470457906526</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8467412753641237</v>
+        <v>0.8465222105278731</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>103543</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>85152</v>
+        <v>84351</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>127634</v>
+        <v>126611</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1383502059695947</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1137770276010416</v>
+        <v>0.1127071463582216</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1705407934930719</v>
+        <v>0.1691733601864109</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>139</v>
@@ -4481,19 +4481,19 @@
         <v>153615</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>132124</v>
+        <v>130150</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>176368</v>
+        <v>175556</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1969778542979237</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1694203854479895</v>
+        <v>0.1668883469132552</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2261537397073169</v>
+        <v>0.2251122167123134</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>231</v>
@@ -4502,19 +4502,19 @@
         <v>257158</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>229123</v>
+        <v>225561</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>287403</v>
+        <v>287733</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1682672849557551</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1499231315029543</v>
+        <v>0.1475919975944702</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1880573755186088</v>
+        <v>0.1882734744087981</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>644867</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>620776</v>
+        <v>621799</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>663258</v>
+        <v>664059</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8616497940304053</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8294592065069282</v>
+        <v>0.8308266398135892</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8862229723989586</v>
+        <v>0.8872928536417786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>577</v>
@@ -4552,19 +4552,19 @@
         <v>626246</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>603493</v>
+        <v>604305</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>647737</v>
+        <v>649711</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8030221457020762</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.773846260292683</v>
+        <v>0.7748877832876865</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8305796145520103</v>
+        <v>0.8331116530867448</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1174</v>
@@ -4573,19 +4573,19 @@
         <v>1271113</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1240868</v>
+        <v>1240538</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1299148</v>
+        <v>1302710</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8317327150442448</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.811942624481391</v>
+        <v>0.8117265255912018</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8500768684970457</v>
+        <v>0.8524080024055298</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>555303</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>509525</v>
+        <v>515435</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>605647</v>
+        <v>603805</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1652519369933603</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1516289655994046</v>
+        <v>0.153387701039976</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1802338987128513</v>
+        <v>0.1796858143168582</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>669</v>
@@ -4698,19 +4698,19 @@
         <v>718009</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>672690</v>
+        <v>671745</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>770058</v>
+        <v>767903</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2107116530554805</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1974121597492258</v>
+        <v>0.1971348882414079</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2259863696221692</v>
+        <v>0.2253540689922032</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1179</v>
@@ -4719,19 +4719,19 @@
         <v>1273311</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1205324</v>
+        <v>1198779</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1339959</v>
+        <v>1333796</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1881403202191062</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1780946611697248</v>
+        <v>0.1771276022033057</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1979878712914117</v>
+        <v>0.1970773354030113</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2805037</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2754693</v>
+        <v>2756535</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2850815</v>
+        <v>2844905</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8347480630066397</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8197661012871489</v>
+        <v>0.8203141856831417</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8483710344005957</v>
+        <v>0.8466122989600241</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2487</v>
@@ -4769,19 +4769,19 @@
         <v>2689533</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2637484</v>
+        <v>2639639</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2734852</v>
+        <v>2735797</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7892883469445194</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7740136303778308</v>
+        <v>0.7746459310077967</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8025878402507742</v>
+        <v>0.8028651117585921</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5126</v>
@@ -4790,19 +4790,19 @@
         <v>5494571</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5427923</v>
+        <v>5434086</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5562558</v>
+        <v>5569103</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8118596797808938</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8020121287085882</v>
+        <v>0.8029226645969885</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8219053388302749</v>
+        <v>0.822872397796694</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>51265</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37974</v>
+        <v>38388</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65979</v>
+        <v>64810</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1793307716269604</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1328361395136534</v>
+        <v>0.1342848608410417</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2308018413473662</v>
+        <v>0.2267122539026655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -5159,19 +5159,19 @@
         <v>37384</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27235</v>
+        <v>27191</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49867</v>
+        <v>49755</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1397059890654906</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1017814508184547</v>
+        <v>0.1016155969027511</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1863567732880714</v>
+        <v>0.1859395247930511</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -5180,19 +5180,19 @@
         <v>88649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72377</v>
+        <v>70886</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107180</v>
+        <v>107860</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1601727685392126</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1307716998990183</v>
+        <v>0.1280793167295901</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1936559244458826</v>
+        <v>0.1948833864541164</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>234604</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>219890</v>
+        <v>221059</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>247895</v>
+        <v>247481</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8206692283730396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7691981586526337</v>
+        <v>0.7732877460973344</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8671638604863466</v>
+        <v>0.8657151391589584</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>222</v>
@@ -5230,19 +5230,19 @@
         <v>230204</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217721</v>
+        <v>217833</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>240353</v>
+        <v>240397</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8602940109345094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8136432267119286</v>
+        <v>0.8140604752069488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8982185491815453</v>
+        <v>0.8983844030972489</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>436</v>
@@ -5251,19 +5251,19 @@
         <v>464808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>446277</v>
+        <v>445597</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>481080</v>
+        <v>482571</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8398272314607874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8063440755541172</v>
+        <v>0.8051166135458836</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8692283001009816</v>
+        <v>0.8719206832704098</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>71223</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56178</v>
+        <v>57695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88643</v>
+        <v>88956</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1436438115496415</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1133003945087308</v>
+        <v>0.116359622051095</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1787760242916904</v>
+        <v>0.1794069584462136</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -5376,19 +5376,19 @@
         <v>111841</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93471</v>
+        <v>92008</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>131503</v>
+        <v>132570</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2236997137022032</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1869573540826454</v>
+        <v>0.1840297115650696</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2630260253725967</v>
+        <v>0.2651613289106186</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>165</v>
@@ -5397,19 +5397,19 @@
         <v>183064</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158898</v>
+        <v>160665</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210325</v>
+        <v>210191</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1838378050645276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1595694373788093</v>
+        <v>0.1613436872636603</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2112134543960396</v>
+        <v>0.2110790945206074</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>424608</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>407188</v>
+        <v>406875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>439653</v>
+        <v>438136</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8563561884503584</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8212239757083096</v>
+        <v>0.820593041553787</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8866996054912689</v>
+        <v>0.883640377948905</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>366</v>
@@ -5447,19 +5447,19 @@
         <v>388120</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>368458</v>
+        <v>367391</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>406490</v>
+        <v>407953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7763002862977968</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7369739746274034</v>
+        <v>0.7348386710893815</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8130426459173546</v>
+        <v>0.8159702884349307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>767</v>
@@ -5468,19 +5468,19 @@
         <v>812728</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>785467</v>
+        <v>785601</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>836894</v>
+        <v>835127</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8161621949354725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7887865456039604</v>
+        <v>0.7889209054793924</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8404305626211908</v>
+        <v>0.8386563127363397</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>54289</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42749</v>
+        <v>41835</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67919</v>
+        <v>68018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1722717053927939</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1356504092159193</v>
+        <v>0.1327505412369892</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2155204623635099</v>
+        <v>0.2158371268164392</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -5593,19 +5593,19 @@
         <v>57033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43571</v>
+        <v>45865</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71788</v>
+        <v>73034</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1744544373578561</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1332746826751513</v>
+        <v>0.1402930984887502</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.219588368694132</v>
+        <v>0.223397947082366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>111</v>
@@ -5614,19 +5614,19 @@
         <v>111323</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92203</v>
+        <v>92797</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>131176</v>
+        <v>131403</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1733831026167754</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1436046479754416</v>
+        <v>0.1445305098999579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2043046020973414</v>
+        <v>0.2046586374996688</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>260849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>247219</v>
+        <v>247120</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>272389</v>
+        <v>273303</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8277282946072061</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7844795376364898</v>
+        <v>0.7841628731835604</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8643495907840806</v>
+        <v>0.8672494587630105</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>268</v>
@@ -5664,19 +5664,19 @@
         <v>269890</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>255135</v>
+        <v>253889</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>283352</v>
+        <v>281058</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8255455626421438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7804116313058677</v>
+        <v>0.776602052917634</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8667253173248487</v>
+        <v>0.8597069015112496</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>543</v>
@@ -5685,19 +5685,19 @@
         <v>530738</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>510885</v>
+        <v>510658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>549858</v>
+        <v>549264</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8266168973832246</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7956953979026586</v>
+        <v>0.7953413625003317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8563953520245586</v>
+        <v>0.8554694901000421</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>78140</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63079</v>
+        <v>62441</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>93867</v>
+        <v>94298</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2200251169506115</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1776146134259648</v>
+        <v>0.1758198497415477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2643075761359426</v>
+        <v>0.2655198675697146</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -5810,19 +5810,19 @@
         <v>67627</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54703</v>
+        <v>53924</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84151</v>
+        <v>82790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2008511084481429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1624659134976406</v>
+        <v>0.1601543973423654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2499266581110721</v>
+        <v>0.2458836447028745</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>139</v>
@@ -5831,19 +5831,19 @@
         <v>145768</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>126279</v>
+        <v>125996</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169265</v>
+        <v>169891</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2106936505299117</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1825244684769226</v>
+        <v>0.1821156393273177</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2446566705927277</v>
+        <v>0.2455624557599598</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>277003</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>261276</v>
+        <v>260845</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>292064</v>
+        <v>292702</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7799748830493886</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7356924238640575</v>
+        <v>0.7344801324302854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8223853865740353</v>
+        <v>0.8241801502584523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>253</v>
@@ -5881,19 +5881,19 @@
         <v>269076</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>252552</v>
+        <v>253913</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>282000</v>
+        <v>282779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7991488915518572</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7500733418889278</v>
+        <v>0.7541163552971254</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8375340865023595</v>
+        <v>0.8398456026576346</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>517</v>
@@ -5902,19 +5902,19 @@
         <v>546078</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>522581</v>
+        <v>521955</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>565567</v>
+        <v>565850</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7893063494700883</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7553433294072723</v>
+        <v>0.7544375442400402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8174755315230776</v>
+        <v>0.8178843606726823</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>29902</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20704</v>
+        <v>20269</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40269</v>
+        <v>41101</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1447427126012425</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1002225298185443</v>
+        <v>0.09811583319308069</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1949249183968665</v>
+        <v>0.1989530693848712</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -6027,19 +6027,19 @@
         <v>51966</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40206</v>
+        <v>40052</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65323</v>
+        <v>64857</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2399829281980887</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.185675277129825</v>
+        <v>0.1849604721452524</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3016636942279844</v>
+        <v>0.2995146084096272</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -6048,19 +6048,19 @@
         <v>81868</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>66616</v>
+        <v>66038</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98390</v>
+        <v>98103</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.193483400047174</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1574371236448509</v>
+        <v>0.1560711158119499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2325307410316063</v>
+        <v>0.2318520799156657</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>176683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>166316</v>
+        <v>165484</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>185881</v>
+        <v>186316</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8552572873987575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8050750816031333</v>
+        <v>0.8010469306151292</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8997774701814556</v>
+        <v>0.9018841668069195</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>170</v>
@@ -6098,19 +6098,19 @@
         <v>164576</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151219</v>
+        <v>151685</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176336</v>
+        <v>176490</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7600170718019112</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6983363057720156</v>
+        <v>0.7004853915903729</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8143247228701751</v>
+        <v>0.8150395278547476</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>347</v>
@@ -6119,19 +6119,19 @@
         <v>341259</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>324737</v>
+        <v>325024</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>356511</v>
+        <v>357089</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.806516599952826</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7674692589683937</v>
+        <v>0.7681479200843343</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8425628763551489</v>
+        <v>0.8439288841880499</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>50371</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38662</v>
+        <v>37643</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64688</v>
+        <v>63708</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1914339347970155</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1469358566371435</v>
+        <v>0.1430604787423085</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2458475257089343</v>
+        <v>0.2421241527244651</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -6244,19 +6244,19 @@
         <v>52010</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40104</v>
+        <v>39829</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66926</v>
+        <v>65597</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1931924015414194</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1489676501695371</v>
+        <v>0.1479441135052222</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2485973193184428</v>
+        <v>0.2436606816816762</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -6265,19 +6265,19 @@
         <v>102381</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85988</v>
+        <v>86070</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122113</v>
+        <v>122701</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1923232285434595</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1615294228720648</v>
+        <v>0.1616831033970582</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2293905276071839</v>
+        <v>0.2304956753748408</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>212752</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198435</v>
+        <v>199415</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224461</v>
+        <v>225480</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8085660652029846</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7541524742910654</v>
+        <v>0.7578758472755349</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8530641433628563</v>
+        <v>0.8569395212576915</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>211</v>
@@ -6315,19 +6315,19 @@
         <v>217204</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>202288</v>
+        <v>203617</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>229110</v>
+        <v>229385</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8068075984585806</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7514026806815574</v>
+        <v>0.7563393183183239</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8510323498304629</v>
+        <v>0.8520558864947778</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>421</v>
@@ -6336,19 +6336,19 @@
         <v>429956</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>410224</v>
+        <v>409636</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>446349</v>
+        <v>446267</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8076767714565405</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7706094723928161</v>
+        <v>0.7695043246251593</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8384705771279352</v>
+        <v>0.838316896602942</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>88091</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70034</v>
+        <v>70312</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106158</v>
+        <v>107001</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1435396308351623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1141163213115135</v>
+        <v>0.1145703690780861</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1729783927617047</v>
+        <v>0.1743532235113113</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>80</v>
@@ -6461,19 +6461,19 @@
         <v>87921</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70639</v>
+        <v>70275</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106997</v>
+        <v>106141</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1364783754169407</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1096523829091399</v>
+        <v>0.1090872894128698</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1660904168841908</v>
+        <v>0.1647612543853511</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>156</v>
@@ -6482,19 +6482,19 @@
         <v>176012</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>153089</v>
+        <v>151102</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>209608</v>
+        <v>201907</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1399233864507259</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.121700620716693</v>
+        <v>0.1201207179869872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1666312478723541</v>
+        <v>0.160509329855312</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>525614</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>507547</v>
+        <v>506704</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>543671</v>
+        <v>543393</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8564603691648377</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8270216072382952</v>
+        <v>0.8256467764886881</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8858836786884864</v>
+        <v>0.8854296309219138</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>525</v>
@@ -6532,19 +6532,19 @@
         <v>556288</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>537212</v>
+        <v>538068</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>573570</v>
+        <v>573934</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8635216245830593</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8339095831158091</v>
+        <v>0.8352387456146489</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8903476170908601</v>
+        <v>0.8909127105871302</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>990</v>
@@ -6553,19 +6553,19 @@
         <v>1081903</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1048307</v>
+        <v>1056008</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1104826</v>
+        <v>1106813</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8600766135492741</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8333687521276457</v>
+        <v>0.8394906701446879</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8782993792833069</v>
+        <v>0.8798792820130128</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>133214</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>112581</v>
+        <v>112752</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>155415</v>
+        <v>153806</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1803797479001518</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1524405478281559</v>
+        <v>0.1526721815154155</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2104408915057807</v>
+        <v>0.208261894770239</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>138</v>
@@ -6678,19 +6678,19 @@
         <v>158696</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>136246</v>
+        <v>136410</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>185183</v>
+        <v>184195</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2031469485727821</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1744089828864835</v>
+        <v>0.1746187225056895</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2370535075686388</v>
+        <v>0.2357887718728714</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>264</v>
@@ -6699,19 +6699,19 @@
         <v>291910</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>262498</v>
+        <v>263866</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>323299</v>
+        <v>328982</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1920829460113237</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.172728757400935</v>
+        <v>0.1736289064769377</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2127370692829618</v>
+        <v>0.2164767649245</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>605308</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>583107</v>
+        <v>584716</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>625941</v>
+        <v>625770</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8196202520998482</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7895591084942195</v>
+        <v>0.7917381052297608</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8475594521718443</v>
+        <v>0.8473278184845844</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>577</v>
@@ -6749,19 +6749,19 @@
         <v>622492</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>596005</v>
+        <v>596993</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>644942</v>
+        <v>644778</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7968530514272179</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7629464924313616</v>
+        <v>0.7642112281271287</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8255910171135167</v>
+        <v>0.8253812774943107</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1162</v>
@@ -6770,19 +6770,19 @@
         <v>1227800</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1196411</v>
+        <v>1190728</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1257212</v>
+        <v>1255844</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8079170539886763</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7872629307170383</v>
+        <v>0.7835232350754999</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8272712425990651</v>
+        <v>0.8263710935230623</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>556496</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>514088</v>
+        <v>514045</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>598081</v>
+        <v>601672</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1699786011504099</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1570254086604667</v>
+        <v>0.1570121827020046</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1826807526177207</v>
+        <v>0.1837775042048599</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>568</v>
@@ -6895,19 +6895,19 @@
         <v>624478</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>581536</v>
+        <v>580852</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>669814</v>
+        <v>673040</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1868392714366687</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1739914460676</v>
+        <v>0.1737867581413026</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2004033091940753</v>
+        <v>0.2013686481608608</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1093</v>
@@ -6916,19 +6916,19 @@
         <v>1180974</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1108972</v>
+        <v>1118694</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1241832</v>
+        <v>1241984</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1784961065829205</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.167613575970413</v>
+        <v>0.169082959754227</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1876944203854455</v>
+        <v>0.1877174176137923</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2717420</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2675835</v>
+        <v>2672244</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2759828</v>
+        <v>2759871</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8300213988495901</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8173192473822793</v>
+        <v>0.8162224957951403</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8429745913395333</v>
+        <v>0.8429878172979954</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2592</v>
@@ -6966,19 +6966,19 @@
         <v>2717850</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2672514</v>
+        <v>2669288</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2760792</v>
+        <v>2761476</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8131607285633313</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7995966908059244</v>
+        <v>0.7986313518391396</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8260085539323996</v>
+        <v>0.8262132418586977</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5183</v>
@@ -6987,19 +6987,19 @@
         <v>5435270</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5374412</v>
+        <v>5374260</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5507272</v>
+        <v>5497550</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8215038934170795</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8123055796145546</v>
+        <v>0.8122825823862078</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8323864240295871</v>
+        <v>0.8309170402457732</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>55102</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43238</v>
+        <v>43681</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70905</v>
+        <v>70064</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1728161889999677</v>
+        <v>0.1728161889999678</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1356093545271373</v>
+        <v>0.1369990920938256</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2223810553066374</v>
+        <v>0.2197445940760256</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>111</v>
@@ -7356,19 +7356,19 @@
         <v>62401</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52452</v>
+        <v>52048</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75330</v>
+        <v>74857</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1988502788802864</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1671463713672444</v>
+        <v>0.1658590903465589</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2400494451366628</v>
+        <v>0.2385418739220853</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -7377,19 +7377,19 @@
         <v>117503</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100028</v>
+        <v>101424</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135660</v>
+        <v>135232</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1857296177539715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1581087633730127</v>
+        <v>0.1603151017599568</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2144291901681795</v>
+        <v>0.213753181940449</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>263743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>247940</v>
+        <v>248781</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>275607</v>
+        <v>275164</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8271838110000321</v>
+        <v>0.8271838110000322</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7776189446933633</v>
+        <v>0.7802554059239746</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8643906454728628</v>
+        <v>0.8630009079061746</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>423</v>
@@ -7427,19 +7427,19 @@
         <v>251409</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>238480</v>
+        <v>238953</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261358</v>
+        <v>261762</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8011497211197137</v>
+        <v>0.8011497211197136</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7599505548633371</v>
+        <v>0.7614581260779151</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8328536286327556</v>
+        <v>0.8341409096534412</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>691</v>
@@ -7448,19 +7448,19 @@
         <v>515152</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>496995</v>
+        <v>497423</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>532627</v>
+        <v>531231</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8142703822460284</v>
+        <v>0.8142703822460285</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7855708098318206</v>
+        <v>0.7862468180595502</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8418912366269874</v>
+        <v>0.8396848982400424</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>109153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89217</v>
+        <v>86830</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>132767</v>
+        <v>132028</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2078372154197628</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1698774370018989</v>
+        <v>0.1653310106867358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2528008190167755</v>
+        <v>0.2513928866046005</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -7573,19 +7573,19 @@
         <v>75351</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63723</v>
+        <v>62207</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91358</v>
+        <v>91986</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1436521640771468</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1214830039632048</v>
+        <v>0.1185929324678097</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1741690661241731</v>
+        <v>0.1753647936305285</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>189</v>
@@ -7594,19 +7594,19 @@
         <v>184504</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158739</v>
+        <v>160433</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>211716</v>
+        <v>210737</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1757644553914679</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1512199275907017</v>
+        <v>0.1528333156514906</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2016871608880677</v>
+        <v>0.2007545536163307</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>416033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>392419</v>
+        <v>393158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>435969</v>
+        <v>438356</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7921627845802374</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7471991809832244</v>
+        <v>0.7486071133953995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8301225629981009</v>
+        <v>0.8346689893132646</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>576</v>
@@ -7644,19 +7644,19 @@
         <v>449188</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>433181</v>
+        <v>432553</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>460816</v>
+        <v>462332</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8563478359228531</v>
+        <v>0.8563478359228534</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.825830933875827</v>
+        <v>0.8246352063694714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8785169960367956</v>
+        <v>0.8814070675321901</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>870</v>
@@ -7665,19 +7665,19 @@
         <v>865221</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>838009</v>
+        <v>838988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>890986</v>
+        <v>889292</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8242355446085321</v>
+        <v>0.8242355446085322</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7983128391119325</v>
+        <v>0.7992454463836691</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8487800724092984</v>
+        <v>0.8471666843485093</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>65836</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52878</v>
+        <v>53339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79793</v>
+        <v>78779</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2134466498349275</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.171434394376068</v>
+        <v>0.172929605684534</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2586937408525135</v>
+        <v>0.2554067182639884</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>126</v>
@@ -7790,19 +7790,19 @@
         <v>77367</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66364</v>
+        <v>65179</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90725</v>
+        <v>91485</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2256983920683529</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1935997065930338</v>
+        <v>0.1901421242605863</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2646669888755229</v>
+        <v>0.2668834939041439</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>207</v>
@@ -7811,19 +7811,19 @@
         <v>143203</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125328</v>
+        <v>125423</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>161667</v>
+        <v>162225</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2198956041118873</v>
+        <v>0.2198956041118874</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1924475082495484</v>
+        <v>0.1925931065048992</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2482475547141602</v>
+        <v>0.2491047654981469</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>242608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228651</v>
+        <v>229665</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255566</v>
+        <v>255105</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7865533501650726</v>
+        <v>0.7865533501650724</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7413062591474864</v>
+        <v>0.7445932817360119</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8285656056239318</v>
+        <v>0.8270703943154661</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>385</v>
@@ -7861,19 +7861,19 @@
         <v>265423</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>252065</v>
+        <v>251305</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>276426</v>
+        <v>277611</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7743016079316472</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7353330111244774</v>
+        <v>0.733116506095856</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8064002934069662</v>
+        <v>0.8098578757394137</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>655</v>
@@ -7882,19 +7882,19 @@
         <v>508031</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>489567</v>
+        <v>489009</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>525906</v>
+        <v>525811</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7801043958881128</v>
+        <v>0.7801043958881126</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7517524452858396</v>
+        <v>0.750895234501853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8075524917504515</v>
+        <v>0.8074068934951008</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>41588</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28421</v>
+        <v>29878</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56265</v>
+        <v>58187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1246115838806383</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08515685175386373</v>
+        <v>0.08952423476175181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1685857635360431</v>
+        <v>0.1743445226246205</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>92</v>
@@ -8007,19 +8007,19 @@
         <v>61875</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48723</v>
+        <v>49138</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>76646</v>
+        <v>76387</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1682608318745478</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1324966943265759</v>
+        <v>0.1336232986823886</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2084277697064496</v>
+        <v>0.2077247821549028</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -8028,19 +8028,19 @@
         <v>103463</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85688</v>
+        <v>86885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>124684</v>
+        <v>126052</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1474936248521606</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1221542305351185</v>
+        <v>0.1238596067584149</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1777448060920815</v>
+        <v>0.1796956753435598</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>292157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>277480</v>
+        <v>275558</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>305324</v>
+        <v>303867</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8753884161193616</v>
+        <v>0.8753884161193617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.831414236463957</v>
+        <v>0.8256554773753795</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9148431482461366</v>
+        <v>0.910475765238248</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>407</v>
@@ -8078,19 +8078,19 @@
         <v>305857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>291086</v>
+        <v>291345</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>319009</v>
+        <v>318594</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8317391681254522</v>
+        <v>0.831739168125452</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7915722302935506</v>
+        <v>0.7922752178450972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8675033056734242</v>
+        <v>0.8663767013176116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>621</v>
@@ -8099,19 +8099,19 @@
         <v>598014</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>576793</v>
+        <v>575425</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>615789</v>
+        <v>614592</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8525063751478393</v>
+        <v>0.8525063751478394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8222551939079186</v>
+        <v>0.8203043246564402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8778457694648816</v>
+        <v>0.8761403932415852</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>22463</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15020</v>
+        <v>15770</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30664</v>
+        <v>31124</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1096120423653534</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0732911944716836</v>
+        <v>0.07695449510118384</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1496325566642335</v>
+        <v>0.1518756446504211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -8224,19 +8224,19 @@
         <v>33321</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26664</v>
+        <v>25938</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40820</v>
+        <v>40154</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1471828365126679</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1177802760821138</v>
+        <v>0.114571256649735</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1803068574593811</v>
+        <v>0.1773655013904596</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -8245,19 +8245,19 @@
         <v>55784</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46331</v>
+        <v>45527</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66704</v>
+        <v>66598</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1293321244164342</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1074163012734226</v>
+        <v>0.1055517539757838</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1546494205455556</v>
+        <v>0.154404244623724</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>182467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>174266</v>
+        <v>173806</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>189910</v>
+        <v>189160</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8903879576346467</v>
+        <v>0.8903879576346466</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8503674433357665</v>
+        <v>0.8481243553495788</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9267088055283166</v>
+        <v>0.923045504898816</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>410</v>
@@ -8295,19 +8295,19 @@
         <v>193070</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185571</v>
+        <v>186237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199727</v>
+        <v>200453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8528171634873322</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8196931425406189</v>
+        <v>0.8226344986095405</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8822197239178859</v>
+        <v>0.885428743350265</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>656</v>
@@ -8316,19 +8316,19 @@
         <v>375537</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>364617</v>
+        <v>364723</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>384990</v>
+        <v>385794</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8706678755835658</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8453505794544446</v>
+        <v>0.845595755376276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8925836987265775</v>
+        <v>0.8944482460242161</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>53631</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43812</v>
+        <v>43948</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67849</v>
+        <v>66682</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1995114259029612</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1629850551671617</v>
+        <v>0.1634901144605966</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2524019909208641</v>
+        <v>0.2480602622856518</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>83</v>
@@ -8441,19 +8441,19 @@
         <v>40438</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31669</v>
+        <v>32528</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49991</v>
+        <v>49621</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1580328012236629</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1237644347160332</v>
+        <v>0.1271207086116573</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1953667570034835</v>
+        <v>0.1939187852073805</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>164</v>
@@ -8462,19 +8462,19 @@
         <v>94069</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80790</v>
+        <v>79384</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108876</v>
+        <v>109308</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1792831225084064</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1539748655922846</v>
+        <v>0.1512956241920966</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2075034803465455</v>
+        <v>0.208327424970484</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>215181</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>200963</v>
+        <v>202130</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225000</v>
+        <v>224864</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8004885740970388</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7475980090791358</v>
+        <v>0.7519397377143482</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8370149448328378</v>
+        <v>0.8365098855394035</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>359</v>
@@ -8512,19 +8512,19 @@
         <v>215445</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>205892</v>
+        <v>206262</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>224214</v>
+        <v>223355</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8419671987763372</v>
+        <v>0.8419671987763371</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8046332429965168</v>
+        <v>0.8060812147926195</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.876235565283967</v>
+        <v>0.8728792913883427</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>646</v>
@@ -8533,19 +8533,19 @@
         <v>430626</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>415819</v>
+        <v>415387</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>443905</v>
+        <v>445311</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8207168774915936</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7924965196534546</v>
+        <v>0.7916725750295159</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8460251344077154</v>
+        <v>0.8487043758079034</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>119964</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>99131</v>
+        <v>100634</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>143621</v>
+        <v>146169</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1697828098511396</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1402992463100249</v>
+        <v>0.142426510571033</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2032650464291987</v>
+        <v>0.2068716105697833</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>179</v>
@@ -8658,19 +8658,19 @@
         <v>131870</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>114112</v>
+        <v>112212</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>151297</v>
+        <v>152427</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1763121284083928</v>
+        <v>0.1763121284083927</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1525689157106487</v>
+        <v>0.1500294671052548</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2022858542089925</v>
+        <v>0.2037972798109207</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>286</v>
@@ -8679,19 +8679,19 @@
         <v>251834</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>224966</v>
+        <v>224169</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>281850</v>
+        <v>281601</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1731403132972048</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.154667904904074</v>
+        <v>0.1541202197647837</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1937770685146852</v>
+        <v>0.1936060490852545</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>586607</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>562950</v>
+        <v>560402</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>607440</v>
+        <v>605937</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8302171901488605</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7967349535708014</v>
+        <v>0.7931283894302167</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.859700753689975</v>
+        <v>0.8575734894289671</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>752</v>
@@ -8729,19 +8729,19 @@
         <v>616066</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>596639</v>
+        <v>595509</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>633824</v>
+        <v>635724</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8236878715916074</v>
+        <v>0.8236878715916072</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7977141457910081</v>
+        <v>0.7962027201890792</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8474310842893518</v>
+        <v>0.8499705328947452</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1233</v>
@@ -8750,19 +8750,19 @@
         <v>1202673</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1172657</v>
+        <v>1172906</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1229541</v>
+        <v>1230338</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8268596867027952</v>
+        <v>0.8268596867027951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8062229314853153</v>
+        <v>0.8063939509147451</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.845332095095926</v>
+        <v>0.8458797802352164</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>119567</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>98605</v>
+        <v>99550</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138569</v>
+        <v>139462</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1521628661510464</v>
+        <v>0.1521628661510465</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1254866073021664</v>
+        <v>0.1266885413903914</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1763454425512465</v>
+        <v>0.1774815528776691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>188</v>
@@ -8875,19 +8875,19 @@
         <v>135230</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>118008</v>
+        <v>116305</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>154773</v>
+        <v>155835</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1662926203740667</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.14511419117848</v>
+        <v>0.143020267604885</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1903251051286278</v>
+        <v>0.1916308429682031</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>316</v>
@@ -8896,19 +8896,19 @@
         <v>254797</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>226668</v>
+        <v>226335</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>281464</v>
+        <v>282161</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1593489032036294</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1417573174474206</v>
+        <v>0.1415488253531217</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1760266389584768</v>
+        <v>0.1764626465061148</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>666216</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>647214</v>
+        <v>646321</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>687178</v>
+        <v>686233</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8478371338489535</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8236545574487536</v>
+        <v>0.8225184471223309</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8745133926978337</v>
+        <v>0.8733114586096087</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>852</v>
@@ -8946,19 +8946,19 @@
         <v>677975</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>658432</v>
+        <v>657370</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>695197</v>
+        <v>696900</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8337073796259332</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.809674894871372</v>
+        <v>0.8083691570317969</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8548858088215199</v>
+        <v>0.8569797323951148</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1475</v>
@@ -8967,19 +8967,19 @@
         <v>1344190</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1317523</v>
+        <v>1316826</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1372319</v>
+        <v>1372652</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8406510967963705</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8239733610415232</v>
+        <v>0.8235373534938855</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8582426825525794</v>
+        <v>0.8584511746468784</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>587304</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>539066</v>
+        <v>538298</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>632424</v>
+        <v>630263</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1701188478098171</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1561463603124457</v>
+        <v>0.1559238264511973</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1831883927307408</v>
+        <v>0.1825625650796149</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>965</v>
@@ -9092,19 +9092,19 @@
         <v>617853</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>582723</v>
+        <v>581079</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>657904</v>
+        <v>658063</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1719944818956029</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.162215211839431</v>
+        <v>0.1617575678300949</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1831434492571926</v>
+        <v>0.1831877193253705</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1578</v>
@@ -9113,19 +9113,19 @@
         <v>1205157</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1141892</v>
+        <v>1144108</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1264879</v>
+        <v>1263225</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1710752985301051</v>
+        <v>0.171075298530105</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1620946296369999</v>
+        <v>0.1624092396576425</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1795529247436644</v>
+        <v>0.1793181573559217</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2865011</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2819891</v>
+        <v>2822052</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2913249</v>
+        <v>2914017</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.829881152190183</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8168116072692594</v>
+        <v>0.8174374349203852</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8438536396875544</v>
+        <v>0.8440761735488035</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4164</v>
@@ -9163,19 +9163,19 @@
         <v>2974433</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2934382</v>
+        <v>2934223</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3009563</v>
+        <v>3011207</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8280055181043972</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8168565507428075</v>
+        <v>0.8168122806746296</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8377847881605691</v>
+        <v>0.8382424321699052</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6847</v>
@@ -9184,19 +9184,19 @@
         <v>5839444</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5779722</v>
+        <v>5781376</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5902709</v>
+        <v>5900493</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8289247014698949</v>
+        <v>0.8289247014698951</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8204470752563355</v>
+        <v>0.8206818426440786</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8379053703630001</v>
+        <v>0.8375907603423576</v>
       </c>
     </row>
     <row r="30">
